--- a/结果.xlsx
+++ b/结果.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C114"/>
+  <dimension ref="A1:C358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,10 +443,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>186</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>384</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
@@ -454,10 +454,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>195</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>6703</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4">
@@ -465,10 +465,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>201</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>10277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5">
@@ -476,10 +476,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>211</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>8564</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6">
@@ -487,10 +487,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>222</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>3856</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7">
@@ -498,10 +498,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>234</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>3297</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8">
@@ -509,10 +509,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>205</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>1843</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9">
@@ -520,10 +520,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>211</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>1505</v>
+        <v>405</v>
       </c>
     </row>
     <row r="10">
@@ -531,10 +531,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>216</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>882</v>
+        <v>410</v>
       </c>
     </row>
     <row r="11">
@@ -542,10 +542,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>231</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>791</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12">
@@ -553,10 +553,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>234</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>545</v>
+        <v>399</v>
       </c>
     </row>
     <row r="13">
@@ -564,10 +564,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>241</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>449</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14">
@@ -575,10 +575,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>247</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>288</v>
+        <v>352</v>
       </c>
     </row>
     <row r="15">
@@ -586,10 +586,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>248</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>268</v>
+        <v>363</v>
       </c>
     </row>
     <row r="16">
@@ -597,10 +597,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>250</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>200</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17">
@@ -608,10 +608,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>251</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>145</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18">
@@ -619,10 +619,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>250</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>120</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19">
@@ -630,10 +630,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>250</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>109</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20">
@@ -641,10 +641,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>251</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>96</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21">
@@ -652,10 +652,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>253</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>53</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22">
@@ -663,10 +663,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>250</v>
+        <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>58</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23">
@@ -674,10 +674,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>252</v>
+        <v>3</v>
       </c>
       <c r="C23" t="n">
-        <v>49</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24">
@@ -685,10 +685,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>250</v>
+        <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>52</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25">
@@ -696,10 +696,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>251</v>
+        <v>3</v>
       </c>
       <c r="C25" t="n">
-        <v>33</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26">
@@ -707,10 +707,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>252</v>
+        <v>3</v>
       </c>
       <c r="C26" t="n">
-        <v>32</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27">
@@ -718,10 +718,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>252</v>
+        <v>3</v>
       </c>
       <c r="C27" t="n">
-        <v>29</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28">
@@ -729,10 +729,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>250</v>
+        <v>3</v>
       </c>
       <c r="C28" t="n">
-        <v>25</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29">
@@ -740,10 +740,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>252</v>
+        <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>17</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30">
@@ -751,10 +751,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>250</v>
+        <v>3</v>
       </c>
       <c r="C30" t="n">
-        <v>18</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31">
@@ -762,10 +762,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>250</v>
+        <v>3</v>
       </c>
       <c r="C31" t="n">
-        <v>18</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32">
@@ -773,10 +773,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>251</v>
+        <v>3</v>
       </c>
       <c r="C32" t="n">
-        <v>12</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33">
@@ -784,10 +784,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>250</v>
+        <v>3</v>
       </c>
       <c r="C33" t="n">
-        <v>14</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34">
@@ -795,10 +795,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>250</v>
+        <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>9</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35">
@@ -806,10 +806,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>251</v>
+        <v>3</v>
       </c>
       <c r="C35" t="n">
-        <v>8</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36">
@@ -817,10 +817,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>249</v>
+        <v>3</v>
       </c>
       <c r="C36" t="n">
-        <v>10</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37">
@@ -828,10 +828,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>252</v>
+        <v>3</v>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38">
@@ -839,10 +839,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>252</v>
+        <v>3</v>
       </c>
       <c r="C38" t="n">
-        <v>10</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39">
@@ -850,10 +850,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>244</v>
+        <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>10</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40">
@@ -861,10 +861,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>252</v>
+        <v>3</v>
       </c>
       <c r="C40" t="n">
-        <v>11</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41">
@@ -872,10 +872,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>250</v>
+        <v>3</v>
       </c>
       <c r="C41" t="n">
-        <v>6</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42">
@@ -883,10 +883,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>252</v>
+        <v>3</v>
       </c>
       <c r="C42" t="n">
-        <v>6</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43">
@@ -894,10 +894,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>252</v>
+        <v>3</v>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44">
@@ -905,10 +905,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>252</v>
+        <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45">
@@ -916,10 +916,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>252</v>
+        <v>3</v>
       </c>
       <c r="C45" t="n">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46">
@@ -927,10 +927,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>251</v>
+        <v>3</v>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47">
@@ -938,10 +938,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>253</v>
+        <v>3</v>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48">
@@ -949,10 +949,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>238</v>
+        <v>3</v>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49">
@@ -960,10 +960,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>253</v>
+        <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>6</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50">
@@ -971,10 +971,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>253</v>
+        <v>3</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51">
@@ -982,10 +982,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>253</v>
+        <v>3</v>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52">
@@ -993,10 +993,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>253</v>
+        <v>3</v>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53">
@@ -1004,10 +1004,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>253</v>
+        <v>3</v>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54">
@@ -1015,10 +1015,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>252</v>
+        <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55">
@@ -1026,10 +1026,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>250</v>
+        <v>3</v>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56">
@@ -1037,10 +1037,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>253</v>
+        <v>3</v>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57">
@@ -1048,10 +1048,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>251</v>
+        <v>3</v>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58">
@@ -1059,10 +1059,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>219</v>
+        <v>3</v>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59">
@@ -1070,10 +1070,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>247</v>
+        <v>3</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60">
@@ -1081,10 +1081,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>253</v>
+        <v>3</v>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61">
@@ -1092,10 +1092,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>252</v>
+        <v>3</v>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62">
@@ -1103,10 +1103,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>253</v>
+        <v>3</v>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63">
@@ -1114,10 +1114,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>254</v>
+        <v>3</v>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="64">
@@ -1125,10 +1125,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>253</v>
+        <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65">
@@ -1136,10 +1136,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>251</v>
+        <v>3</v>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66">
@@ -1147,10 +1147,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>253</v>
+        <v>3</v>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67">
@@ -1158,10 +1158,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>253</v>
+        <v>3</v>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68">
@@ -1169,10 +1169,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>253</v>
+        <v>3</v>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>49</v>
       </c>
     </row>
     <row r="69">
@@ -1180,10 +1180,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>253</v>
+        <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70">
@@ -1191,10 +1191,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>253</v>
+        <v>3</v>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71">
@@ -1202,10 +1202,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>255</v>
+        <v>3</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72">
@@ -1213,10 +1213,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>253</v>
+        <v>3</v>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73">
@@ -1224,10 +1224,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>250</v>
+        <v>3</v>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74">
@@ -1235,10 +1235,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>252</v>
+        <v>3</v>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75">
@@ -1246,10 +1246,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>253</v>
+        <v>3</v>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76">
@@ -1257,10 +1257,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>254</v>
+        <v>3</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77">
@@ -1268,10 +1268,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>233</v>
+        <v>3</v>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78">
@@ -1279,10 +1279,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>253</v>
+        <v>3</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79">
@@ -1290,10 +1290,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>253</v>
+        <v>3</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80">
@@ -1301,10 +1301,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>252</v>
+        <v>3</v>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81">
@@ -1312,10 +1312,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>247</v>
+        <v>3</v>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82">
@@ -1323,10 +1323,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>251</v>
+        <v>3</v>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83">
@@ -1334,10 +1334,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>251</v>
+        <v>3</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84">
@@ -1345,10 +1345,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>253</v>
+        <v>3</v>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85">
@@ -1356,10 +1356,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>252</v>
+        <v>3</v>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86">
@@ -1367,10 +1367,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>253</v>
+        <v>3</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87">
@@ -1378,10 +1378,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>251</v>
+        <v>3</v>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88">
@@ -1389,10 +1389,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>253</v>
+        <v>3</v>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89">
@@ -1400,10 +1400,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>254</v>
+        <v>3</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90">
@@ -1411,10 +1411,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>239</v>
+        <v>3</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91">
@@ -1422,10 +1422,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>253</v>
+        <v>3</v>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92">
@@ -1433,10 +1433,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>254</v>
+        <v>3</v>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93">
@@ -1444,10 +1444,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>251</v>
+        <v>3</v>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94">
@@ -1455,10 +1455,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>253</v>
+        <v>3</v>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95">
@@ -1466,10 +1466,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>253</v>
+        <v>3</v>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96">
@@ -1477,10 +1477,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>253</v>
+        <v>3</v>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97">
@@ -1488,10 +1488,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>251</v>
+        <v>3</v>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98">
@@ -1499,10 +1499,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>247</v>
+        <v>3</v>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99">
@@ -1510,10 +1510,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>251</v>
+        <v>3</v>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100">
@@ -1521,10 +1521,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>253</v>
+        <v>3</v>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101">
@@ -1532,10 +1532,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>253</v>
+        <v>3</v>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102">
@@ -1543,10 +1543,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>251</v>
+        <v>3</v>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103">
@@ -1554,10 +1554,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>253</v>
+        <v>3</v>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="104">
@@ -1565,10 +1565,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>253</v>
+        <v>3</v>
       </c>
       <c r="C104" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105">
@@ -1576,10 +1576,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>253</v>
+        <v>3</v>
       </c>
       <c r="C105" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106">
@@ -1587,10 +1587,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>253</v>
+        <v>3</v>
       </c>
       <c r="C106" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107">
@@ -1598,10 +1598,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>252</v>
+        <v>3</v>
       </c>
       <c r="C107" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108">
@@ -1609,10 +1609,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>254</v>
+        <v>3</v>
       </c>
       <c r="C108" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109">
@@ -1620,10 +1620,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>251</v>
+        <v>3</v>
       </c>
       <c r="C109" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110">
@@ -1631,10 +1631,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>251</v>
+        <v>3</v>
       </c>
       <c r="C110" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="111">
@@ -1642,10 +1642,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>253</v>
+        <v>3</v>
       </c>
       <c r="C111" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112">
@@ -1653,10 +1653,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>253</v>
+        <v>3</v>
       </c>
       <c r="C112" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113">
@@ -1664,10 +1664,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>251</v>
+        <v>3</v>
       </c>
       <c r="C113" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114">
@@ -1675,9 +1675,2693 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
+        <v>3</v>
+      </c>
+      <c r="C114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>3</v>
+      </c>
+      <c r="C115" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>3</v>
+      </c>
+      <c r="C116" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>3</v>
+      </c>
+      <c r="C117" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>3</v>
+      </c>
+      <c r="C118" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>3</v>
+      </c>
+      <c r="C119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>3</v>
+      </c>
+      <c r="C120" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>3</v>
+      </c>
+      <c r="C121" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>3</v>
+      </c>
+      <c r="C122" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>3</v>
+      </c>
+      <c r="C123" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>3</v>
+      </c>
+      <c r="C124" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>3</v>
+      </c>
+      <c r="C125" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>3</v>
+      </c>
+      <c r="C126" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>3</v>
+      </c>
+      <c r="C127" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>3</v>
+      </c>
+      <c r="C128" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>3</v>
+      </c>
+      <c r="C129" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>4</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>3</v>
+      </c>
+      <c r="C131" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>3</v>
+      </c>
+      <c r="C132" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>3</v>
+      </c>
+      <c r="C133" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>3</v>
+      </c>
+      <c r="C134" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>3</v>
+      </c>
+      <c r="C135" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>3</v>
+      </c>
+      <c r="C136" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>3</v>
+      </c>
+      <c r="C137" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>3</v>
+      </c>
+      <c r="C138" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>3</v>
+      </c>
+      <c r="C139" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>3</v>
+      </c>
+      <c r="C140" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>3</v>
+      </c>
+      <c r="C141" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>3</v>
+      </c>
+      <c r="C142" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>3</v>
+      </c>
+      <c r="C143" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>3</v>
+      </c>
+      <c r="C144" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>3</v>
+      </c>
+      <c r="C145" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>3</v>
+      </c>
+      <c r="C146" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>4</v>
+      </c>
+      <c r="C147" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>3</v>
+      </c>
+      <c r="C148" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>3</v>
+      </c>
+      <c r="C149" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>3</v>
+      </c>
+      <c r="C150" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>3</v>
+      </c>
+      <c r="C151" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>3</v>
+      </c>
+      <c r="C152" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>3</v>
+      </c>
+      <c r="C153" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>3</v>
+      </c>
+      <c r="C154" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>3</v>
+      </c>
+      <c r="C155" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>4</v>
+      </c>
+      <c r="C156" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>3</v>
+      </c>
+      <c r="C157" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>3</v>
+      </c>
+      <c r="C158" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>4</v>
+      </c>
+      <c r="C159" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>3</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>3</v>
+      </c>
+      <c r="C161" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>3</v>
+      </c>
+      <c r="C162" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>4</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>3</v>
+      </c>
+      <c r="C164" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>3</v>
+      </c>
+      <c r="C165" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>3</v>
+      </c>
+      <c r="C166" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>3</v>
+      </c>
+      <c r="C167" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>4</v>
+      </c>
+      <c r="C168" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>3</v>
+      </c>
+      <c r="C169" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>4</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>3</v>
+      </c>
+      <c r="C171" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>4</v>
+      </c>
+      <c r="C172" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>4</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>3</v>
+      </c>
+      <c r="C174" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>4</v>
+      </c>
+      <c r="C175" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>3</v>
+      </c>
+      <c r="C176" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>4</v>
+      </c>
+      <c r="C177" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>4</v>
+      </c>
+      <c r="C178" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>4</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>4</v>
+      </c>
+      <c r="C180" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>3</v>
+      </c>
+      <c r="C181" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>4</v>
+      </c>
+      <c r="C182" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>3</v>
+      </c>
+      <c r="C183" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>3</v>
+      </c>
+      <c r="C184" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>3</v>
+      </c>
+      <c r="C185" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>3</v>
+      </c>
+      <c r="C186" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>4</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>4</v>
+      </c>
+      <c r="C188" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>3</v>
+      </c>
+      <c r="C189" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>3</v>
+      </c>
+      <c r="C190" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>4</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>4</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>4</v>
+      </c>
+      <c r="C193" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>4</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>4</v>
+      </c>
+      <c r="C195" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>3</v>
+      </c>
+      <c r="C196" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>4</v>
+      </c>
+      <c r="C197" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>3</v>
+      </c>
+      <c r="C198" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>4</v>
+      </c>
+      <c r="C199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>4</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>4</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>4</v>
+      </c>
+      <c r="C202" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>3</v>
+      </c>
+      <c r="C203" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>3</v>
+      </c>
+      <c r="C204" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>4</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>4</v>
+      </c>
+      <c r="C206" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>4</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>4</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>4</v>
+      </c>
+      <c r="C209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>4</v>
+      </c>
+      <c r="C210" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>4</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>4</v>
+      </c>
+      <c r="C212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>4</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>3</v>
+      </c>
+      <c r="C214" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>4</v>
+      </c>
+      <c r="C215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>4</v>
+      </c>
+      <c r="C216" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>3</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>4</v>
+      </c>
+      <c r="C218" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>4</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>4</v>
+      </c>
+      <c r="C220" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>4</v>
+      </c>
+      <c r="C221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>3</v>
+      </c>
+      <c r="C222" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>4</v>
+      </c>
+      <c r="C223" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>4</v>
+      </c>
+      <c r="C224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>3</v>
+      </c>
+      <c r="C225" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>4</v>
+      </c>
+      <c r="C226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>4</v>
+      </c>
+      <c r="C227" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>4</v>
+      </c>
+      <c r="C228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>4</v>
+      </c>
+      <c r="C229" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>4</v>
+      </c>
+      <c r="C230" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>4</v>
+      </c>
+      <c r="C231" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>4</v>
+      </c>
+      <c r="C232" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>4</v>
+      </c>
+      <c r="C233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>4</v>
+      </c>
+      <c r="C234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>4</v>
+      </c>
+      <c r="C235" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>4</v>
+      </c>
+      <c r="C236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>4</v>
+      </c>
+      <c r="C237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>4</v>
+      </c>
+      <c r="C238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>4</v>
+      </c>
+      <c r="C239" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>4</v>
+      </c>
+      <c r="C240" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>4</v>
+      </c>
+      <c r="C241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>4</v>
+      </c>
+      <c r="C242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>4</v>
+      </c>
+      <c r="C243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>4</v>
+      </c>
+      <c r="C244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>4</v>
+      </c>
+      <c r="C245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>4</v>
+      </c>
+      <c r="C246" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>4</v>
+      </c>
+      <c r="C247" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>4</v>
+      </c>
+      <c r="C248" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>4</v>
+      </c>
+      <c r="C249" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>4</v>
+      </c>
+      <c r="C250" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>4</v>
+      </c>
+      <c r="C251" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>4</v>
+      </c>
+      <c r="C252" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>4</v>
+      </c>
+      <c r="C253" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>4</v>
+      </c>
+      <c r="C254" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
         <v>253</v>
       </c>
-      <c r="C114" t="n">
+      <c r="B255" t="n">
+        <v>4</v>
+      </c>
+      <c r="C255" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>4</v>
+      </c>
+      <c r="C256" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>4</v>
+      </c>
+      <c r="C257" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>4</v>
+      </c>
+      <c r="C258" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>4</v>
+      </c>
+      <c r="C259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>4</v>
+      </c>
+      <c r="C260" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>4</v>
+      </c>
+      <c r="C261" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>4</v>
+      </c>
+      <c r="C262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>4</v>
+      </c>
+      <c r="C263" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>3</v>
+      </c>
+      <c r="C264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>4</v>
+      </c>
+      <c r="C265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>4</v>
+      </c>
+      <c r="C266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>4</v>
+      </c>
+      <c r="C267" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>4</v>
+      </c>
+      <c r="C268" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>4</v>
+      </c>
+      <c r="C269" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>4</v>
+      </c>
+      <c r="C270" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>4</v>
+      </c>
+      <c r="C271" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>4</v>
+      </c>
+      <c r="C272" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>4</v>
+      </c>
+      <c r="C273" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>4</v>
+      </c>
+      <c r="C274" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>4</v>
+      </c>
+      <c r="C275" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>4</v>
+      </c>
+      <c r="C276" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>4</v>
+      </c>
+      <c r="C277" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>4</v>
+      </c>
+      <c r="C278" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>4</v>
+      </c>
+      <c r="C279" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>4</v>
+      </c>
+      <c r="C280" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>4</v>
+      </c>
+      <c r="C281" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>4</v>
+      </c>
+      <c r="C282" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>4</v>
+      </c>
+      <c r="C283" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>4</v>
+      </c>
+      <c r="C284" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>4</v>
+      </c>
+      <c r="C285" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>4</v>
+      </c>
+      <c r="C286" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>4</v>
+      </c>
+      <c r="C287" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>4</v>
+      </c>
+      <c r="C288" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>4</v>
+      </c>
+      <c r="C289" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>4</v>
+      </c>
+      <c r="C290" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>4</v>
+      </c>
+      <c r="C291" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>4</v>
+      </c>
+      <c r="C292" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>4</v>
+      </c>
+      <c r="C293" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>4</v>
+      </c>
+      <c r="C294" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>4</v>
+      </c>
+      <c r="C295" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>4</v>
+      </c>
+      <c r="C296" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>4</v>
+      </c>
+      <c r="C297" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>4</v>
+      </c>
+      <c r="C298" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>4</v>
+      </c>
+      <c r="C299" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>4</v>
+      </c>
+      <c r="C300" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="n">
+        <v>4</v>
+      </c>
+      <c r="C301" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>4</v>
+      </c>
+      <c r="C302" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>4</v>
+      </c>
+      <c r="C303" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="n">
+        <v>4</v>
+      </c>
+      <c r="C304" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="n">
+        <v>4</v>
+      </c>
+      <c r="C305" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="n">
+        <v>4</v>
+      </c>
+      <c r="C306" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="n">
+        <v>4</v>
+      </c>
+      <c r="C307" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="n">
+        <v>4</v>
+      </c>
+      <c r="C308" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="n">
+        <v>4</v>
+      </c>
+      <c r="C309" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="n">
+        <v>4</v>
+      </c>
+      <c r="C310" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="n">
+        <v>4</v>
+      </c>
+      <c r="C311" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="n">
+        <v>4</v>
+      </c>
+      <c r="C312" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="n">
+        <v>4</v>
+      </c>
+      <c r="C313" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="n">
+        <v>4</v>
+      </c>
+      <c r="C314" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="n">
+        <v>4</v>
+      </c>
+      <c r="C315" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="n">
+        <v>4</v>
+      </c>
+      <c r="C316" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="n">
+        <v>4</v>
+      </c>
+      <c r="C317" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="n">
+        <v>4</v>
+      </c>
+      <c r="C318" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="n">
+        <v>4</v>
+      </c>
+      <c r="C319" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="n">
+        <v>4</v>
+      </c>
+      <c r="C320" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="n">
+        <v>4</v>
+      </c>
+      <c r="C321" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="n">
+        <v>4</v>
+      </c>
+      <c r="C322" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="n">
+        <v>4</v>
+      </c>
+      <c r="C323" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="n">
+        <v>4</v>
+      </c>
+      <c r="C324" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="n">
+        <v>4</v>
+      </c>
+      <c r="C325" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="n">
+        <v>4</v>
+      </c>
+      <c r="C326" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="n">
+        <v>4</v>
+      </c>
+      <c r="C327" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="n">
+        <v>4</v>
+      </c>
+      <c r="C328" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="n">
+        <v>4</v>
+      </c>
+      <c r="C329" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="n">
+        <v>4</v>
+      </c>
+      <c r="C330" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="n">
+        <v>4</v>
+      </c>
+      <c r="C331" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="n">
+        <v>4</v>
+      </c>
+      <c r="C332" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="n">
+        <v>4</v>
+      </c>
+      <c r="C333" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="n">
+        <v>4</v>
+      </c>
+      <c r="C334" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="n">
+        <v>4</v>
+      </c>
+      <c r="C335" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="n">
+        <v>4</v>
+      </c>
+      <c r="C336" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="n">
+        <v>4</v>
+      </c>
+      <c r="C337" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="n">
+        <v>4</v>
+      </c>
+      <c r="C338" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="n">
+        <v>4</v>
+      </c>
+      <c r="C339" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="n">
+        <v>4</v>
+      </c>
+      <c r="C340" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="n">
+        <v>4</v>
+      </c>
+      <c r="C341" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="n">
+        <v>4</v>
+      </c>
+      <c r="C342" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="n">
+        <v>4</v>
+      </c>
+      <c r="C343" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="n">
+        <v>4</v>
+      </c>
+      <c r="C344" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="n">
+        <v>4</v>
+      </c>
+      <c r="C345" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="n">
+        <v>4</v>
+      </c>
+      <c r="C346" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="n">
+        <v>4</v>
+      </c>
+      <c r="C347" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="n">
+        <v>4</v>
+      </c>
+      <c r="C348" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="n">
+        <v>4</v>
+      </c>
+      <c r="C349" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="n">
+        <v>4</v>
+      </c>
+      <c r="C350" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="n">
+        <v>4</v>
+      </c>
+      <c r="C351" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="n">
+        <v>4</v>
+      </c>
+      <c r="C352" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="n">
+        <v>4</v>
+      </c>
+      <c r="C353" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="n">
+        <v>4</v>
+      </c>
+      <c r="C354" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="n">
+        <v>4</v>
+      </c>
+      <c r="C355" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="n">
+        <v>4</v>
+      </c>
+      <c r="C356" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>4</v>
+      </c>
+      <c r="C357" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="n">
+        <v>4</v>
+      </c>
+      <c r="C358" t="n">
         <v>1</v>
       </c>
     </row>
